--- a/utilities/Test_Case.xlsx
+++ b/utilities/Test_Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tmp Admin\PycharmProjects\SeleniumPython\PythonProject\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectTree_QA\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A9042-9D88-4571-997A-0737DE1BC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811AC2B7-24C2-4C33-AD64-02958C717F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{4AAABDB6-9318-4339-B300-CFE907E2095B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4AAABDB6-9318-4339-B300-CFE907E2095B}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>TC_No</t>
   </si>
@@ -139,13 +139,28 @@
   </si>
   <si>
     <t>Verify Login page with  invalid username and valid password</t>
+  </si>
+  <si>
+    <t>MTC_007</t>
+  </si>
+  <si>
+    <t>MTC_008</t>
+  </si>
+  <si>
+    <t>MTC_009</t>
+  </si>
+  <si>
+    <t>MTC_010</t>
+  </si>
+  <si>
+    <t>MTC_011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,12 +173,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,16 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,17 +520,17 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="27.6" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,11 +543,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -558,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -575,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -592,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -609,7 +615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -626,7 +632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -643,12 +649,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -660,12 +666,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -674,15 +680,15 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -694,12 +700,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -708,15 +714,15 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -731,6 +737,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>